--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>WBS Number</t>
   </si>
@@ -33,46 +33,166 @@
     <t>Client/Server application to get mouse activity on remote HOST</t>
   </si>
   <si>
-    <t xml:space="preserve">Create server and client using Windows Sockets </t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Client has to store mouse coordinate each 500ms</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Client has to store mouse clicks</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Client has to send mouse activities to the server</t>
-  </si>
-  <si>
-    <t>Server has to save activities to the file in real time</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Try to make created code cross-compile</t>
-  </si>
-  <si>
-    <t>Create makefile</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Estimates</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>Creating a socket for the server side</t>
+  </si>
+  <si>
+    <t>Bind the created socket to an IP address and port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receive data from socket </t>
+  </si>
+  <si>
+    <t>Create a log file</t>
+  </si>
+  <si>
+    <t>Write the received data to log file</t>
+  </si>
+  <si>
+    <t>Close the log file</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
+  </si>
+  <si>
+    <t>1.1.6</t>
+  </si>
+  <si>
+    <t>1.1.7</t>
+  </si>
+  <si>
+    <t>1.1.8</t>
+  </si>
+  <si>
+    <t>1.1.9</t>
+  </si>
+  <si>
+    <t>1.1.10</t>
+  </si>
+  <si>
+    <t>Creating a socket for the client side</t>
+  </si>
+  <si>
+    <t>Listen on a socket for incoming connection requests</t>
+  </si>
+  <si>
+    <t>Accept connection requests on created listening socket</t>
+  </si>
+  <si>
+    <t>Connect to the server socket</t>
+  </si>
+  <si>
+    <t>Store mouse coordinate</t>
+  </si>
+  <si>
+    <t>If right button clicked, get and store coordinates</t>
+  </si>
+  <si>
+    <t>If left button clicked, get and store coordinates</t>
+  </si>
+  <si>
+    <t>Send data to server side</t>
+  </si>
+  <si>
+    <t>Get mouse coordinate each 500ms</t>
+  </si>
+  <si>
+    <t>Shut down the client socket</t>
+  </si>
+  <si>
+    <t>Close socket</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>Close the socket</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a server side using Windows Sockets </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Create a client side using Windows Sockets </t>
+  </si>
+  <si>
+    <t>1.1.11</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>1.2.4</t>
+  </si>
+  <si>
+    <t>1.2.5</t>
+  </si>
+  <si>
+    <t>1.2.6</t>
+  </si>
+  <si>
+    <t>1.2.7</t>
+  </si>
+  <si>
+    <t>1.2.8</t>
+  </si>
+  <si>
+    <t>1.2.9</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Make application cross-compile</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Create makefile to compile application</t>
+  </si>
+  <si>
+    <t>1 h</t>
+  </si>
+  <si>
+    <t>0.5 h</t>
+  </si>
+  <si>
+    <t>15 h</t>
+  </si>
+  <si>
+    <t>10 h</t>
+  </si>
+  <si>
+    <t>7.5 h</t>
+  </si>
+  <si>
+    <t>5.5h</t>
+  </si>
+  <si>
+    <t>38 h</t>
   </si>
 </sst>
 </file>
@@ -117,11 +237,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -402,16 +540,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="2" width="53.26953125" customWidth="1"/>
+    <col min="2" max="2" width="64.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -422,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -432,98 +570,349 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
+      <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C9" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
+      <c r="C14" s="9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
+      <c r="A15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
+      <c r="A16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A16:A17 A14 A4:A13 A18:A24" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>